--- a/Bug Report.xlsx
+++ b/Bug Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayank.Malhotra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.shell.com/personal/mayank_malhotra_shell_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B01B7EBA-E47A-4084-ABEB-37FDE9596E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3483337-6944-4B62-B969-43D94429D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -849,19 +849,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="2" width="36" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" customWidth="1"/>
-    <col min="4" max="4" width="43.83203125" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="33.1640625" customWidth="1"/>
-    <col min="9" max="9" width="33.25" customWidth="1"/>
-    <col min="10" max="10" width="17.58203125" customWidth="1"/>
-    <col min="11" max="11" width="26.58203125" customWidth="1"/>
-    <col min="12" max="12" width="55.58203125" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" customWidth="1"/>
+    <col min="12" max="12" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
